--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D65" t="n">
         <v>408</v>
       </c>
       <c r="E65" t="n">
-        <v>13672438</v>
+        <v>13691790</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151198</v>
+        <v>151201</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>482916377</v>
+        <v>482924639</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409256</v>
+        <v>409263</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1596968277</v>
+        <v>1597003409</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209645</v>
+        <v>209648</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1309903416</v>
+        <v>1309917695</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94225</v>
+        <v>94226</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>918556141</v>
+        <v>918566141</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17316</v>
+        <v>17317</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>796688550</v>
+        <v>796835901</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4428,13 +4428,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D98" t="n">
         <v>182</v>
       </c>
       <c r="E98" t="n">
-        <v>117880980</v>
+        <v>117970793</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6391</v>
+        <v>6392</v>
       </c>
       <c r="D107" t="n">
         <v>1894</v>
       </c>
       <c r="E107" t="n">
-        <v>21962970</v>
+        <v>21970305</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24418</v>
+        <v>24419</v>
       </c>
       <c r="D144" t="n">
         <v>4622</v>
       </c>
       <c r="E144" t="n">
-        <v>202006399</v>
+        <v>202157062</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6683,13 +6683,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>99154</v>
+        <v>99155</v>
       </c>
       <c r="D153" t="n">
         <v>17289</v>
       </c>
       <c r="E153" t="n">
-        <v>337738796</v>
+        <v>337748796</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6888,13 +6888,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3847</v>
+        <v>3848</v>
       </c>
       <c r="D158" t="n">
         <v>689</v>
       </c>
       <c r="E158" t="n">
-        <v>140852490</v>
+        <v>140904137</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226107</v>
+        <v>226108</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900737512</v>
+        <v>900747512</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80785</v>
+        <v>80786</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>486184257</v>
+        <v>486199250</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249333</v>
+        <v>249334</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036486324</v>
+        <v>1036486441</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151201</v>
+        <v>151202</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>482924639</v>
+        <v>482926544</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409263</v>
+        <v>409279</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597003409</v>
+        <v>1597133234</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209648</v>
+        <v>209653</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1309917695</v>
+        <v>1309991539</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94226</v>
+        <v>94229</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>918566141</v>
+        <v>918982287</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50800</v>
+        <v>50801</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934222755</v>
+        <v>934231255</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17317</v>
+        <v>17322</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>796835901</v>
+        <v>797242656</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135298</v>
+        <v>135300</v>
       </c>
       <c r="D104" t="n">
         <v>23305</v>
       </c>
       <c r="E104" t="n">
-        <v>272636337</v>
+        <v>272650477</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>12219</v>
+        <v>12220</v>
       </c>
       <c r="D167" t="n">
         <v>2416</v>
       </c>
       <c r="E167" t="n">
-        <v>105768718</v>
+        <v>105794259</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7013</v>
+        <v>7014</v>
       </c>
       <c r="D7" t="n">
         <v>1202</v>
       </c>
       <c r="E7" t="n">
-        <v>290576013</v>
+        <v>290682013</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23049</v>
+        <v>23050</v>
       </c>
       <c r="D37" t="n">
         <v>4664</v>
       </c>
       <c r="E37" t="n">
-        <v>130196087</v>
+        <v>130197201</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6356</v>
+        <v>6357</v>
       </c>
       <c r="D51" t="n">
         <v>1252</v>
       </c>
       <c r="E51" t="n">
-        <v>12196809</v>
+        <v>12201689</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409279</v>
+        <v>409282</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597133234</v>
+        <v>1597152985</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209653</v>
+        <v>209656</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1309991539</v>
+        <v>1310025277</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94229</v>
+        <v>94231</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>918982287</v>
+        <v>919017349</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50801</v>
+        <v>50802</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934231255</v>
+        <v>934242292</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20640720</v>
+        <v>20667158</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" t="n">
         <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>1026347</v>
+        <v>1153896</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7014</v>
+        <v>7017</v>
       </c>
       <c r="D7" t="n">
         <v>1202</v>
       </c>
       <c r="E7" t="n">
-        <v>290682013</v>
+        <v>290920261</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5218</v>
+        <v>5219</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20473121</v>
+        <v>20481621</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151202</v>
+        <v>151203</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>482926544</v>
+        <v>482928044</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409282</v>
+        <v>409295</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597152985</v>
+        <v>1597281123</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209656</v>
+        <v>209658</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310025277</v>
+        <v>1310059700</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94231</v>
+        <v>94235</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>919017349</v>
+        <v>919215690</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50802</v>
+        <v>50805</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934242292</v>
+        <v>934508381</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17322</v>
+        <v>17323</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797242656</v>
+        <v>797283923</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D97" t="n">
         <v>375</v>
       </c>
       <c r="E97" t="n">
-        <v>214351518</v>
+        <v>214451252</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135300</v>
+        <v>135301</v>
       </c>
       <c r="D104" t="n">
         <v>23305</v>
       </c>
       <c r="E104" t="n">
-        <v>272650477</v>
+        <v>272651977</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5658,13 +5658,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
       </c>
       <c r="E128" t="n">
-        <v>342497</v>
+        <v>509896</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>30290</v>
+        <v>30292</v>
       </c>
       <c r="D132" t="n">
         <v>5782</v>
       </c>
       <c r="E132" t="n">
-        <v>174225945</v>
+        <v>174228945</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5945,13 +5945,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D135" t="n">
         <v>324</v>
       </c>
       <c r="E135" t="n">
-        <v>65675260</v>
+        <v>65742275</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D9" t="n">
         <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>36555237</v>
+        <v>36710944</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35709</v>
+        <v>35711</v>
       </c>
       <c r="D24" t="n">
         <v>6498</v>
       </c>
       <c r="E24" t="n">
-        <v>132410803</v>
+        <v>132418601</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23050</v>
+        <v>23051</v>
       </c>
       <c r="D37" t="n">
         <v>4664</v>
       </c>
       <c r="E37" t="n">
-        <v>130197201</v>
+        <v>130209454</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151203</v>
+        <v>151205</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>482928044</v>
+        <v>482940711</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409295</v>
+        <v>409310</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597281123</v>
+        <v>1597395258</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209658</v>
+        <v>209667</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310059700</v>
+        <v>1310155630</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94235</v>
+        <v>94239</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>919215690</v>
+        <v>919263386</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50805</v>
+        <v>50806</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934508381</v>
+        <v>934548578</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17323</v>
+        <v>17325</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797283923</v>
+        <v>797387398</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135301</v>
+        <v>135303</v>
       </c>
       <c r="D104" t="n">
         <v>23305</v>
       </c>
       <c r="E104" t="n">
-        <v>272651977</v>
+        <v>272657154</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D119" t="n">
         <v>56</v>
       </c>
       <c r="E119" t="n">
-        <v>10745878</v>
+        <v>10772714</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>72710</v>
+        <v>72711</v>
       </c>
       <c r="D155" t="n">
         <v>13876</v>
       </c>
       <c r="E155" t="n">
-        <v>416701454</v>
+        <v>416714952</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7175,13 +7175,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>83811</v>
+        <v>83817</v>
       </c>
       <c r="D165" t="n">
         <v>17113</v>
       </c>
       <c r="E165" t="n">
-        <v>354994773</v>
+        <v>355003773</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226108</v>
+        <v>226111</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900747512</v>
+        <v>900762198</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249334</v>
+        <v>249335</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036486441</v>
+        <v>1036488011</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20794</v>
+        <v>20796</v>
       </c>
       <c r="D6" t="n">
         <v>3261</v>
       </c>
       <c r="E6" t="n">
-        <v>360648950</v>
+        <v>360718555</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="D7" t="n">
         <v>1202</v>
       </c>
       <c r="E7" t="n">
-        <v>290920261</v>
+        <v>291118761</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141685</v>
+        <v>141687</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590074232</v>
+        <v>590077232</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8452</v>
+        <v>8453</v>
       </c>
       <c r="D82" t="n">
         <v>1386</v>
       </c>
       <c r="E82" t="n">
-        <v>124859106</v>
+        <v>124867404</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409310</v>
+        <v>409316</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597395258</v>
+        <v>1597549233</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209667</v>
+        <v>209672</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310155630</v>
+        <v>1310272697</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94239</v>
+        <v>94241</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>919263386</v>
+        <v>919287786</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50806</v>
+        <v>50809</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934548578</v>
+        <v>934729383</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17325</v>
+        <v>17327</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797387398</v>
+        <v>797769865</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>35930</v>
+        <v>35931</v>
       </c>
       <c r="D166" t="n">
         <v>7079</v>
       </c>
       <c r="E166" t="n">
-        <v>210592920</v>
+        <v>210610514</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D8" t="n">
         <v>194</v>
       </c>
       <c r="E8" t="n">
-        <v>91353904</v>
+        <v>91427330</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>110817</v>
+        <v>110819</v>
       </c>
       <c r="D14" t="n">
         <v>21135</v>
       </c>
       <c r="E14" t="n">
-        <v>253250548</v>
+        <v>253257597</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>85735</v>
+        <v>85736</v>
       </c>
       <c r="D25" t="n">
         <v>16455</v>
       </c>
       <c r="E25" t="n">
-        <v>374589136</v>
+        <v>374597636</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151205</v>
+        <v>151207</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>482940711</v>
+        <v>482961698</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409316</v>
+        <v>409326</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597549233</v>
+        <v>1597623538</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209672</v>
+        <v>209674</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310272697</v>
+        <v>1310292697</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94241</v>
+        <v>94244</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>919287786</v>
+        <v>919337557</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50809</v>
+        <v>50811</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934729383</v>
+        <v>934799343</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17327</v>
+        <v>17328</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797769865</v>
+        <v>797814283</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>168977</v>
+        <v>168978</v>
       </c>
       <c r="D142" t="n">
         <v>35054</v>
       </c>
       <c r="E142" t="n">
-        <v>681801246</v>
+        <v>681802746</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6478,13 +6478,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D148" t="n">
         <v>24</v>
       </c>
       <c r="E148" t="n">
-        <v>10632134</v>
+        <v>10649586</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>80786</v>
+        <v>80787</v>
       </c>
       <c r="D175" t="n">
         <v>14070</v>
       </c>
       <c r="E175" t="n">
-        <v>486199250</v>
+        <v>486200750</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20796</v>
+        <v>20797</v>
       </c>
       <c r="D6" t="n">
         <v>3261</v>
       </c>
       <c r="E6" t="n">
-        <v>360718555</v>
+        <v>360751379</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D8" t="n">
         <v>194</v>
       </c>
       <c r="E8" t="n">
-        <v>91427330</v>
+        <v>91488760</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>35711</v>
+        <v>35712</v>
       </c>
       <c r="D24" t="n">
         <v>6498</v>
       </c>
       <c r="E24" t="n">
-        <v>132418601</v>
+        <v>132422179</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7251</v>
+        <v>7252</v>
       </c>
       <c r="D38" t="n">
         <v>1431</v>
       </c>
       <c r="E38" t="n">
-        <v>58559613</v>
+        <v>58569613</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2788,13 +2788,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D58" t="n">
         <v>76</v>
       </c>
       <c r="E58" t="n">
-        <v>34758363</v>
+        <v>34766328</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3280,13 +3280,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>15735</v>
+        <v>15736</v>
       </c>
       <c r="D70" t="n">
         <v>2768</v>
       </c>
       <c r="E70" t="n">
-        <v>24685528</v>
+        <v>24686069</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409326</v>
+        <v>409331</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597623538</v>
+        <v>1597674047</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209674</v>
+        <v>209679</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310292697</v>
+        <v>1310315886</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94244</v>
+        <v>94245</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>919337557</v>
+        <v>919346057</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17328</v>
+        <v>17329</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797814283</v>
+        <v>797818686</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135303</v>
+        <v>135305</v>
       </c>
       <c r="D104" t="n">
         <v>23305</v>
       </c>
       <c r="E104" t="n">
-        <v>272657154</v>
+        <v>272661062</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3803</v>
+        <v>3805</v>
       </c>
       <c r="D114" t="n">
         <v>699</v>
       </c>
       <c r="E114" t="n">
-        <v>9118147</v>
+        <v>9123175</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D120" t="n">
         <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>2534864</v>
+        <v>2597532</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6191,13 +6191,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>80476</v>
+        <v>80477</v>
       </c>
       <c r="D141" t="n">
         <v>15006</v>
       </c>
       <c r="E141" t="n">
-        <v>280739870</v>
+        <v>280751076</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24419</v>
+        <v>24421</v>
       </c>
       <c r="D144" t="n">
         <v>4622</v>
       </c>
       <c r="E144" t="n">
-        <v>202157062</v>
+        <v>202173459</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7626,13 +7626,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>28901</v>
+        <v>28903</v>
       </c>
       <c r="D176" t="n">
         <v>4722</v>
       </c>
       <c r="E176" t="n">
-        <v>263226900</v>
+        <v>263366691</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D179" t="n">
         <v>128</v>
       </c>
       <c r="E179" t="n">
-        <v>54103701</v>
+        <v>54145745</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>60295</v>
+        <v>60296</v>
       </c>
       <c r="D54" t="n">
         <v>11728</v>
       </c>
       <c r="E54" t="n">
-        <v>353616999</v>
+        <v>353618499</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>116596</v>
+        <v>116599</v>
       </c>
       <c r="D79" t="n">
         <v>22734</v>
       </c>
       <c r="E79" t="n">
-        <v>447379892</v>
+        <v>447398198</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151207</v>
+        <v>151222</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>482961698</v>
+        <v>483094810</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409331</v>
+        <v>409333</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597674047</v>
+        <v>1597707602</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209679</v>
+        <v>209681</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310315886</v>
+        <v>1310327386</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17329</v>
+        <v>17330</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797818686</v>
+        <v>797888258</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135305</v>
+        <v>135320</v>
       </c>
       <c r="D104" t="n">
         <v>23305</v>
       </c>
       <c r="E104" t="n">
-        <v>272661062</v>
+        <v>272806678</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4879,13 +4879,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D109" t="n">
         <v>233</v>
       </c>
       <c r="E109" t="n">
-        <v>20781207</v>
+        <v>20804705</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249335</v>
+        <v>249336</v>
       </c>
       <c r="D3" t="n">
         <v>47457</v>
       </c>
       <c r="E3" t="n">
-        <v>1036488011</v>
+        <v>1036489581</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141687</v>
+        <v>141688</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590077232</v>
+        <v>590078732</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151222</v>
+        <v>151249</v>
       </c>
       <c r="D91" t="n">
         <v>24856</v>
       </c>
       <c r="E91" t="n">
-        <v>483094810</v>
+        <v>483346675</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409333</v>
+        <v>409341</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1597707602</v>
+        <v>1597795335</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209681</v>
+        <v>209683</v>
       </c>
       <c r="D93" t="n">
         <v>34263</v>
       </c>
       <c r="E93" t="n">
-        <v>1310327386</v>
+        <v>1310346798</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4264,13 +4264,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>94245</v>
+        <v>94246</v>
       </c>
       <c r="D94" t="n">
         <v>13795</v>
       </c>
       <c r="E94" t="n">
-        <v>919346057</v>
+        <v>919357089</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50811</v>
+        <v>50813</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>934799343</v>
+        <v>935119531</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17330</v>
+        <v>17331</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>797888258</v>
+        <v>797952512</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135320</v>
+        <v>135345</v>
       </c>
       <c r="D104" t="n">
         <v>23305</v>
       </c>
       <c r="E104" t="n">
-        <v>272806678</v>
+        <v>273027754</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20667158</v>
+        <v>20680072</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5248,13 +5248,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D118" t="n">
         <v>161</v>
       </c>
       <c r="E118" t="n">
-        <v>11859662</v>
+        <v>11896140</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11833</v>
+        <v>11834</v>
       </c>
       <c r="D145" t="n">
         <v>1969</v>
       </c>
       <c r="E145" t="n">
-        <v>182731618</v>
+        <v>182736103</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7093,13 +7093,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>70984</v>
+        <v>70985</v>
       </c>
       <c r="D163" t="n">
         <v>15610</v>
       </c>
       <c r="E163" t="n">
-        <v>131768000</v>
+        <v>131769402</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>96863</v>
+        <v>96866</v>
       </c>
       <c r="D173" t="n">
         <v>16841</v>
       </c>
       <c r="E173" t="n">
-        <v>327957144</v>
+        <v>327978644</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226111</v>
+        <v>226115</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900762198</v>
+        <v>900825976</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
